--- a/build/output/StructureDefinition-pacio-qr.xlsx
+++ b/build/output/StructureDefinition-pacio-qr.xlsx
@@ -976,44 +976,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.9140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="46.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.93359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="47.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="59.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="58.98828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="42.50390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.9375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.70703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="43.953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="42.83984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="108.703125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="111.80859375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/build/output/StructureDefinition-pacio-qr.xlsx
+++ b/build/output/StructureDefinition-pacio-qr.xlsx
@@ -976,44 +976,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.93359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="47.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.9140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="46.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="58.98828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="59.14453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="43.953125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="42.83984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="42.50390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.9375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.70703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="111.80859375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="108.703125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/build/output/StructureDefinition-pacio-qr.xlsx
+++ b/build/output/StructureDefinition-pacio-qr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="258">
   <si>
     <t>Path</t>
   </si>
@@ -670,6 +670,9 @@
     <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
+    <t>This field contains the LOINC code.</t>
+  </si>
+  <si>
     <t>Element.id</t>
   </si>
   <si>
@@ -712,6 +715,9 @@
   </si>
   <si>
     <t>Items can repeat in the answers, so a direct 1..1 correspondence by position might not exist - requiring correspondence by identifier.</t>
+  </si>
+  <si>
+    <t>This field contains the assesment section and GG question id.</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=DEFN].target[classCode=OBS, moodCode=DEFN].id</t>
@@ -999,7 +1005,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="42.50390625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="55.68359375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="58.9375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -3367,7 +3373,7 @@
         <v>42</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="Y22" t="s" s="2">
         <v>42</v>
@@ -3388,7 +3394,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3406,7 +3412,7 @@
         <v>42</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>42</v>
@@ -3414,7 +3420,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3443,7 +3449,7 @@
         <v>97</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>99</v>
@@ -3496,7 +3502,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3514,7 +3520,7 @@
         <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -3522,11 +3528,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3548,10 +3554,10 @@
         <v>96</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>99</v>
@@ -3606,7 +3612,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3632,7 +3638,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3658,14 +3664,14 @@
         <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -3693,7 +3699,7 @@
         <v>42</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="Y25" t="s" s="2">
         <v>42</v>
@@ -3714,7 +3720,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>50</v>
@@ -3732,7 +3738,7 @@
         <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>42</v>
@@ -3740,7 +3746,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3766,16 +3772,16 @@
         <v>64</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -3824,7 +3830,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -3842,7 +3848,7 @@
         <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>42</v>
@@ -3850,7 +3856,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3876,14 +3882,14 @@
         <v>52</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>42</v>
@@ -3932,7 +3938,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -3950,7 +3956,7 @@
         <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>42</v>
@@ -3958,7 +3964,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3984,13 +3990,13 @@
         <v>198</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4040,7 +4046,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4058,7 +4064,7 @@
         <v>42</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>42</v>
@@ -4066,7 +4072,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4146,7 +4152,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4164,7 +4170,7 @@
         <v>42</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>42</v>
@@ -4172,7 +4178,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4201,7 +4207,7 @@
         <v>97</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>99</v>
@@ -4254,7 +4260,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4272,7 +4278,7 @@
         <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>42</v>
@@ -4280,11 +4286,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4306,10 +4312,10 @@
         <v>96</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>99</v>
@@ -4364,7 +4370,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4390,7 +4396,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4413,19 +4419,19 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
@@ -4474,7 +4480,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4492,7 +4498,7 @@
         <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>42</v>
@@ -4500,7 +4506,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4526,14 +4532,14 @@
         <v>42</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -4582,7 +4588,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4608,7 +4614,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4634,14 +4640,14 @@
         <v>42</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -4690,7 +4696,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>

--- a/build/output/StructureDefinition-pacio-qr.xlsx
+++ b/build/output/StructureDefinition-pacio-qr.xlsx
@@ -437,7 +437,7 @@
 </t>
   </si>
   <si>
-    <t>Form being answered</t>
+    <t>This field contains the URI for the PAC assessment.</t>
   </si>
   <si>
     <t>The Questionnaire that defines and organizes the questions for which answers are being provided.</t>

--- a/build/output/StructureDefinition-pacio-qr.xlsx
+++ b/build/output/StructureDefinition-pacio-qr.xlsx
@@ -982,44 +982,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.9140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="46.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.93359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="47.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="59.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="58.98828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="55.68359375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.9375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.70703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="57.73828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="42.83984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="108.703125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="111.80859375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
